--- a/BackTest/2020-01-15 BackTest REP.xlsx
+++ b/BackTest/2020-01-15 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,7 +814,7 @@
         <v>77.68560000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,17 +913,11 @@
         <v>52.4849675229358</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -954,15 +948,9 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
-      <c r="I17" t="n">
-        <v>10900</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -993,15 +981,9 @@
       <c r="H18" t="n">
         <v>2</v>
       </c>
-      <c r="I18" t="n">
-        <v>10880</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1032,15 +1014,9 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
-      <c r="I19" t="n">
-        <v>10880</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1071,15 +1047,9 @@
       <c r="H20" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>10810</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,15 +1080,9 @@
       <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>10800</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1149,15 +1113,9 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>10740</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1188,15 +1146,9 @@
       <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>10740</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1227,15 +1179,9 @@
       <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>10740</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1264,15 +1210,11 @@
         <v>165.2969675229358</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1301,15 +1243,11 @@
         <v>163.2969675229358</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1338,15 +1276,11 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1375,15 +1309,11 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1412,15 +1342,11 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1449,15 +1375,11 @@
         <v>114.4269675229358</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1486,15 +1408,11 @@
         <v>72.6069675229358</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1523,15 +1441,11 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1560,15 +1474,11 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1597,15 +1507,11 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1634,15 +1540,11 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1671,15 +1573,11 @@
         <v>-435.9002324770642</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1708,15 +1606,11 @@
         <v>-435.9002324770642</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1745,15 +1639,11 @@
         <v>-213.9442324770642</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1782,15 +1672,11 @@
         <v>-213.9442324770642</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1819,15 +1705,11 @@
         <v>-373.1002324770642</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1856,15 +1738,11 @@
         <v>-374.1456324770642</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1893,15 +1771,11 @@
         <v>-281.6086324770641</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1930,15 +1804,11 @@
         <v>-303.8324324770641</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1967,15 +1837,11 @@
         <v>-103.8324324770641</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2004,15 +1870,11 @@
         <v>-100.7653324770641</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2041,15 +1903,11 @@
         <v>-100.7653324770641</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2078,15 +1936,11 @@
         <v>3.441467522935881</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2115,15 +1969,11 @@
         <v>3.441467522935881</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2152,15 +2002,11 @@
         <v>18.13456752293588</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2189,15 +2035,11 @@
         <v>20.13456752293588</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2226,15 +2068,11 @@
         <v>19.13456752293588</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2267,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2304,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2341,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2378,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2415,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2448,15 +2266,11 @@
         <v>178.0826675229359</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2485,15 +2299,11 @@
         <v>178.0826675229359</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2522,15 +2332,11 @@
         <v>-17828.46123247706</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2559,15 +2365,11 @@
         <v>-17816.35543247706</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2596,15 +2398,11 @@
         <v>-17862.25763247706</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2633,15 +2431,11 @@
         <v>-18212.76893247706</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2674,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2711,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2785,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2822,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2859,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2933,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2970,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3007,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3044,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3081,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3118,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3155,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3188,16 +2926,14 @@
         <v>-17957.36073247706</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
       <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
@@ -3388,7 +3124,7 @@
         <v>-16860.57313247706</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3421,7 +3157,7 @@
         <v>-16860.57313247706</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3454,7 +3190,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3652,14 +3388,10 @@
         <v>-16903.81273247706</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>10920</v>
-      </c>
-      <c r="J91" t="n">
-        <v>10920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
@@ -3689,19 +3421,11 @@
         <v>-16908.25633247706</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>10940</v>
-      </c>
-      <c r="J92" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3733,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3769,19 +3487,11 @@
         <v>-16846.65073247705</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>10900</v>
-      </c>
-      <c r="J94" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3813,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3852,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3891,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3930,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3969,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4008,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4047,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4086,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4125,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4164,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4203,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4242,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4281,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4317,17 +3949,15 @@
         <v>-16132.89393247705</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>10990</v>
+      </c>
       <c r="J108" t="n">
-        <v>10920</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>10990</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4360,11 +3990,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L109" t="n">
@@ -4399,11 +4029,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4438,7 +4068,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4477,7 +4107,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4512,11 +4142,13 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10990</v>
+      </c>
       <c r="J113" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4551,11 +4183,13 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10990</v>
+      </c>
       <c r="J114" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4590,11 +4224,13 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10970</v>
+      </c>
       <c r="J115" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4629,11 +4265,13 @@
         <v>-15889.78263465097</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10970</v>
+      </c>
       <c r="J116" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4668,11 +4306,13 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11020</v>
+      </c>
       <c r="J117" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4707,11 +4347,13 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10990</v>
+      </c>
       <c r="J118" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4746,11 +4388,13 @@
         <v>-15943.53723465097</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10990</v>
+      </c>
       <c r="J119" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4785,11 +4429,13 @@
         <v>-15957.17653465097</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11000</v>
+      </c>
       <c r="J120" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4824,11 +4470,13 @@
         <v>-15948.50863465097</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10970</v>
+      </c>
       <c r="J121" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4863,11 +4511,13 @@
         <v>-15576.60333465097</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>11000</v>
+      </c>
       <c r="J122" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4902,11 +4552,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>11040</v>
+      </c>
       <c r="J123" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4941,11 +4593,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11050</v>
+      </c>
       <c r="J124" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4980,11 +4634,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>11050</v>
+      </c>
       <c r="J125" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5019,11 +4675,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11050</v>
+      </c>
       <c r="J126" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5058,11 +4716,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>11050</v>
+      </c>
       <c r="J127" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5097,11 +4757,13 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11050</v>
+      </c>
       <c r="J128" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5136,11 +4798,13 @@
         <v>-15476.90133465097</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11050</v>
+      </c>
       <c r="J129" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5175,11 +4839,13 @@
         <v>-15476.85133465097</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10980</v>
+      </c>
       <c r="J130" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5214,11 +4880,13 @@
         <v>-15478.35473465097</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11040</v>
+      </c>
       <c r="J131" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5253,11 +4921,13 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11030</v>
+      </c>
       <c r="J132" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5292,11 +4962,13 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10960</v>
+      </c>
       <c r="J133" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5331,11 +5003,13 @@
         <v>-15500.30013465097</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10960</v>
+      </c>
       <c r="J134" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5370,11 +5044,13 @@
         <v>-15505.32893465097</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11010</v>
+      </c>
       <c r="J135" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5409,11 +5085,13 @@
         <v>-15305.27553465097</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10960</v>
+      </c>
       <c r="J136" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5448,11 +5126,13 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11010</v>
+      </c>
       <c r="J137" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5487,11 +5167,13 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10910</v>
+      </c>
       <c r="J138" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5526,11 +5208,13 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10910</v>
+      </c>
       <c r="J139" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5565,11 +5249,13 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10910</v>
+      </c>
       <c r="J140" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5604,11 +5290,13 @@
         <v>-15742.36923465097</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>10910</v>
+      </c>
       <c r="J141" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5643,11 +5331,13 @@
         <v>-15717.36923465097</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10920</v>
+      </c>
       <c r="J142" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5682,11 +5372,13 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10980</v>
+      </c>
       <c r="J143" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5721,11 +5413,13 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>10990</v>
+      </c>
       <c r="J144" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5760,11 +5454,13 @@
         <v>-15191.37443465097</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>10990</v>
+      </c>
       <c r="J145" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5799,11 +5495,13 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11010</v>
+      </c>
       <c r="J146" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5838,11 +5536,13 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11040</v>
+      </c>
       <c r="J147" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5877,11 +5577,13 @@
         <v>-14854.51703465097</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11040</v>
+      </c>
       <c r="J148" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5916,11 +5618,13 @@
         <v>-14804.51703465097</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11050</v>
+      </c>
       <c r="J149" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5955,11 +5659,13 @@
         <v>-14521.34923465097</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11060</v>
+      </c>
       <c r="J150" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5998,7 +5704,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6037,7 +5743,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6076,7 +5782,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6115,7 +5821,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6154,7 +5860,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6193,7 +5899,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6232,7 +5938,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6271,7 +5977,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6310,7 +6016,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6349,7 +6055,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6388,7 +6094,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6423,19 +6129,19 @@
         <v>-13956.07211802875</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>10920</v>
+        <v>10990</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L162" t="n">
-        <v>1.005989010989011</v>
+        <v>1</v>
       </c>
       <c r="M162" t="inlineStr"/>
     </row>
@@ -6462,11 +6168,17 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +6207,17 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +6246,17 @@
         <v>-14008.93598790397</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6285,17 @@
         <v>-14005.61778790397</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6594,11 +6324,17 @@
         <v>-14032.01778790397</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +6363,17 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +6402,17 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +6441,17 @@
         <v>-14038.09758790397</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +6480,17 @@
         <v>-14180.55518790397</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6519,17 @@
         <v>-14099.66908790397</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6558,17 @@
         <v>-14036.06888790397</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6828,8 +6600,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +6636,17 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6894,8 +6678,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +6714,17 @@
         <v>-14161.20308790397</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6960,8 +6756,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6993,8 +6795,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7026,8 +6834,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7059,8 +6873,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7092,8 +6912,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7125,8 +6951,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7158,8 +6990,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7191,8 +7029,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7221,13 +7065,19 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>10990</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L186" t="n">
-        <v>1</v>
+        <v>1.010468607825296</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -7254,7 +7104,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7287,7 +7137,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7320,7 +7170,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7353,7 +7203,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7386,7 +7236,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7419,7 +7269,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7452,7 +7302,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7485,7 +7335,7 @@
         <v>-14236.32188790397</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7518,7 +7368,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7551,7 +7401,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7584,7 +7434,7 @@
         <v>-14712.91228790397</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7617,7 +7467,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7650,7 +7500,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7683,7 +7533,7 @@
         <v>-14613.26778790397</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7716,7 +7566,7 @@
         <v>-14613.26778790397</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7749,7 +7599,7 @@
         <v>-14674.74618790397</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8475,7 +8325,7 @@
         <v>-14975.30358790397</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8508,7 +8358,7 @@
         <v>-15049.85718790397</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -10158,10 +10008,14 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10860</v>
+      </c>
+      <c r="J275" t="n">
+        <v>10860</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -10194,8 +10048,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>10860</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10227,8 +10087,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>10860</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10290,11 +10156,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10870</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10323,11 +10195,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10860</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10356,11 +10234,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10860</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10389,11 +10273,17 @@
         <v>-17495.21052500806</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10860</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +10312,17 @@
         <v>-17442.13402500806</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10850</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10455,11 +10351,17 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10860</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10488,11 +10390,17 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10870</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10521,11 +10429,17 @@
         <v>-16763.16142500806</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10870</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10554,11 +10468,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10910</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10589,9 +10509,15 @@
       <c r="H288" t="n">
         <v>1</v>
       </c>
-      <c r="I288" t="inlineStr"/>
+      <c r="I288" t="n">
+        <v>10890</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +10546,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10890</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10653,11 +10585,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>10890</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10686,11 +10624,17 @@
         <v>-16904.92742500806</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>10890</v>
+      </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10721,9 +10665,15 @@
       <c r="H292" t="n">
         <v>1</v>
       </c>
-      <c r="I292" t="inlineStr"/>
+      <c r="I292" t="n">
+        <v>10920</v>
+      </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10752,11 +10702,17 @@
         <v>-16813.65662054946</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>10990</v>
+      </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10785,11 +10741,17 @@
         <v>-16896.45202054946</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>10990</v>
+      </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10818,11 +10780,17 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>10940</v>
+      </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10851,11 +10819,17 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>10950</v>
+      </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10884,11 +10858,17 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10950</v>
+      </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10917,11 +10897,17 @@
         <v>-16825.15742054945</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>10950</v>
+      </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10950,11 +10936,17 @@
         <v>-16788.20552054945</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>10970</v>
+      </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10983,11 +10975,17 @@
         <v>-16231.20552054945</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>11000</v>
+      </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11016,11 +11014,17 @@
         <v>-16262.59592054945</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>11050</v>
+      </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11049,11 +11053,17 @@
         <v>-16016.59592054945</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>10980</v>
+      </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11082,11 +11092,17 @@
         <v>-15984.59592054945</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>11090</v>
+      </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11115,11 +11131,17 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>11100</v>
+      </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11148,11 +11170,17 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>11150</v>
+      </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11185,7 +11213,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11214,11 +11246,17 @@
         <v>-16097.56092054945</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>11060</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11247,11 +11285,17 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>11080</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11280,11 +11324,17 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>11070</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11313,11 +11363,17 @@
         <v>-16464.28062054945</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>11070</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11346,11 +11402,17 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>11050</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11379,11 +11441,17 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>11070</v>
+      </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11412,11 +11480,17 @@
         <v>-16231.29802054945</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>11070</v>
+      </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11445,11 +11519,17 @@
         <v>-16237.70582054945</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>11150</v>
+      </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11478,11 +11558,17 @@
         <v>-16225.08702054945</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>11130</v>
+      </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +11597,17 @@
         <v>-16271.48702054945</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>11150</v>
+      </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11548,7 +11640,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11577,11 +11673,15 @@
         <v>-16165.75072054945</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11610,11 +11710,15 @@
         <v>-16099.98892054945</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11643,11 +11747,15 @@
         <v>-16610.02632054945</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11680,7 +11788,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11713,7 +11825,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11742,11 +11858,15 @@
         <v>-16598.28992054945</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11779,7 +11899,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11812,7 +11936,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11845,7 +11973,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11878,7 +12010,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11907,11 +12043,17 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I328" t="n">
+        <v>11130</v>
+      </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11944,7 +12086,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11977,7 +12123,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12010,7 +12160,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12043,7 +12197,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12076,7 +12234,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12109,7 +12271,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12142,7 +12308,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12175,7 +12345,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12208,7 +12382,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12241,7 +12419,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12274,7 +12456,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12307,7 +12493,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12340,7 +12530,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12373,7 +12567,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12406,7 +12604,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12439,7 +12641,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12472,7 +12678,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12505,7 +12715,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12538,7 +12752,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12571,7 +12789,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12604,7 +12826,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12637,7 +12863,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12670,7 +12900,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12703,7 +12937,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12736,7 +12974,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12769,7 +13011,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12802,7 +13048,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12835,7 +13085,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12868,7 +13122,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12901,7 +13159,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12934,7 +13196,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12967,7 +13233,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13000,7 +13270,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13033,7 +13307,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13066,7 +13344,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13099,7 +13381,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +13418,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13165,7 +13455,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13198,7 +13492,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13231,7 +13529,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13264,7 +13566,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13297,7 +13603,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13330,7 +13640,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13363,7 +13677,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13396,7 +13714,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13429,7 +13751,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13462,7 +13788,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13495,7 +13825,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13528,7 +13862,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13561,7 +13899,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13590,14 +13932,16 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -14426,6 +14770,6 @@
       <c r="M404" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest REP.xlsx
+++ b/BackTest/2020-01-15 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>114.442</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>63.57510000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>127.6856</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>77.68560000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>52.4849675229358</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-16.3091324770642</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>165.2969675229358</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>114.4269675229358</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>72.6069675229358</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>64.0996675229358</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-435.9002324770642</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-435.9002324770642</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-213.9442324770642</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-213.9442324770642</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-373.1002324770642</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-374.1456324770642</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-281.6086324770641</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-303.8324324770641</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-103.8324324770641</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-100.7653324770641</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-100.7653324770641</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3.441467522935881</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>3.441467522935881</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>18.13456752293588</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>20.13456752293588</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>19.13456752293588</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16849.21173247706</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-16849.26093247706</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-16903.81273247706</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-16908.25633247706</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-16999.22843247706</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-16846.65073247705</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16846.59863247705</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3949,14 +3949,10 @@
         <v>-16132.89393247705</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J108" t="n">
-        <v>10990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
@@ -3989,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4142,19 +4114,11 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J113" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4183,19 +4147,11 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J114" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4224,19 +4180,11 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>10970</v>
-      </c>
-      <c r="J115" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4265,19 +4213,11 @@
         <v>-15889.78263465097</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>10970</v>
-      </c>
-      <c r="J116" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4306,19 +4246,11 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>11020</v>
-      </c>
-      <c r="J117" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4347,19 +4279,11 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J118" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4388,19 +4312,11 @@
         <v>-15943.53723465097</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J119" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4429,19 +4345,11 @@
         <v>-15957.17653465097</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>11000</v>
-      </c>
-      <c r="J120" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4470,19 +4378,11 @@
         <v>-15948.50863465097</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>10970</v>
-      </c>
-      <c r="J121" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4511,19 +4411,11 @@
         <v>-15576.60333465097</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>11000</v>
-      </c>
-      <c r="J122" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4552,19 +4444,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>11040</v>
-      </c>
-      <c r="J123" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4593,19 +4477,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J124" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4634,19 +4510,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J125" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4675,19 +4543,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J126" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4716,19 +4576,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J127" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4757,19 +4609,11 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J128" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4798,19 +4642,11 @@
         <v>-15476.90133465097</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J129" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4839,19 +4675,11 @@
         <v>-15476.85133465097</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>10980</v>
-      </c>
-      <c r="J130" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4880,19 +4708,11 @@
         <v>-15478.35473465097</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>11040</v>
-      </c>
-      <c r="J131" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4921,19 +4741,11 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>11030</v>
-      </c>
-      <c r="J132" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4962,19 +4774,11 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>10960</v>
-      </c>
-      <c r="J133" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5003,19 +4807,11 @@
         <v>-15500.30013465097</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>10960</v>
-      </c>
-      <c r="J134" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5044,19 +4840,11 @@
         <v>-15505.32893465097</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>11010</v>
-      </c>
-      <c r="J135" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5085,19 +4873,11 @@
         <v>-15305.27553465097</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>10960</v>
-      </c>
-      <c r="J136" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5126,19 +4906,11 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>11010</v>
-      </c>
-      <c r="J137" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5167,19 +4939,11 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>10910</v>
-      </c>
-      <c r="J138" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5208,19 +4972,11 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>10910</v>
-      </c>
-      <c r="J139" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5249,19 +5005,11 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>10910</v>
-      </c>
-      <c r="J140" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5290,19 +5038,11 @@
         <v>-15742.36923465097</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>10910</v>
-      </c>
-      <c r="J141" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5331,19 +5071,11 @@
         <v>-15717.36923465097</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>10920</v>
-      </c>
-      <c r="J142" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5372,19 +5104,11 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>10980</v>
-      </c>
-      <c r="J143" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5413,19 +5137,11 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J144" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5454,19 +5170,11 @@
         <v>-15191.37443465097</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>10990</v>
-      </c>
-      <c r="J145" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5495,19 +5203,11 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11010</v>
-      </c>
-      <c r="J146" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5536,19 +5236,11 @@
         <v>-15004.51703465097</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11040</v>
-      </c>
-      <c r="J147" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5577,19 +5269,11 @@
         <v>-14854.51703465097</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11040</v>
-      </c>
-      <c r="J148" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5618,19 +5302,11 @@
         <v>-14804.51703465097</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11050</v>
-      </c>
-      <c r="J149" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5659,19 +5335,11 @@
         <v>-14521.34923465097</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>11060</v>
-      </c>
-      <c r="J150" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5703,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5742,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5781,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5820,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5859,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5898,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5937,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5976,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6015,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6054,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6093,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6132,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6171,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6210,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6249,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6288,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6327,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6366,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6405,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6444,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6483,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6522,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6561,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6600,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6639,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6678,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6717,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6756,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6795,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6834,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6873,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6912,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6951,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6990,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7029,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7065,19 +6523,13 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>10990</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
-        <v>1.010468607825296</v>
+        <v>1</v>
       </c>
       <c r="M186" t="inlineStr"/>
     </row>
@@ -7104,7 +6556,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7137,7 +6589,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7170,7 +6622,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7203,7 +6655,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7236,7 +6688,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7269,7 +6721,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7302,7 +6754,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7335,7 +6787,7 @@
         <v>-14236.32188790397</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7368,7 +6820,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7401,7 +6853,7 @@
         <v>-14683.71228790397</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7434,7 +6886,7 @@
         <v>-14712.91228790397</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7467,7 +6919,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7500,7 +6952,7 @@
         <v>-14711.91228790397</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7533,7 +6985,7 @@
         <v>-14613.26778790397</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7566,7 +7018,7 @@
         <v>-14613.26778790397</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7599,7 +7051,7 @@
         <v>-14674.74618790397</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -10008,14 +9460,10 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>10860</v>
-      </c>
-      <c r="J275" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
@@ -10048,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>10860</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10087,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>10860</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10156,17 +9592,11 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>10870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10195,17 +9625,11 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10234,17 +9658,11 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10273,17 +9691,11 @@
         <v>-17495.21052500806</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10312,17 +9724,11 @@
         <v>-17442.13402500806</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>10850</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10351,17 +9757,11 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>10860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10390,17 +9790,11 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>10870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10429,17 +9823,11 @@
         <v>-16763.16142500806</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>10870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10468,17 +9856,11 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>10910</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10507,17 +9889,11 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>10890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10546,17 +9922,11 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>10890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10590,12 +9960,10 @@
       <c r="I290" t="n">
         <v>10890</v>
       </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="n">
+        <v>10890</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10629,10 +9997,12 @@
       <c r="I291" t="n">
         <v>10890</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>10890</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10668,10 +10038,12 @@
       <c r="I292" t="n">
         <v>10920</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>10890</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10702,17 +10074,11 @@
         <v>-16813.65662054946</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>10990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +10115,7 @@
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10858,11 +10224,9 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>10950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -11014,11 +10378,9 @@
         <v>-16262.59592054945</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11053,11 +10415,9 @@
         <v>-16016.59592054945</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>10980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11092,11 +10452,9 @@
         <v>-15984.59592054945</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>11090</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11131,11 +10489,9 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>11100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11170,11 +10526,9 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>11150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11246,11 +10600,9 @@
         <v>-16097.56092054945</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>11060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11285,11 +10637,9 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>11080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11324,11 +10674,9 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11363,11 +10711,9 @@
         <v>-16464.28062054945</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11402,11 +10748,9 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>11050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11441,11 +10785,9 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11480,11 +10822,9 @@
         <v>-16231.29802054945</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>11070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
@@ -11519,11 +10859,9 @@
         <v>-16237.70582054945</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>11150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
@@ -11558,11 +10896,9 @@
         <v>-16225.08702054945</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>11130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr">
         <is>
@@ -11597,11 +10933,9 @@
         <v>-16271.48702054945</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>11150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
@@ -12043,11 +11377,9 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>11130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -13932,16 +13264,18 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
       <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -13971,7 +13305,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14004,7 +13342,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14037,7 +13379,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14070,7 +13416,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14103,7 +13453,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14136,7 +13490,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14169,7 +13527,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14202,7 +13564,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14235,7 +13601,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14268,7 +13638,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14301,7 +13675,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14334,7 +13712,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14367,7 +13749,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14400,7 +13786,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14433,7 +13823,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14466,7 +13860,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14499,7 +13897,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14532,7 +13934,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14565,7 +13971,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14598,7 +14008,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14631,7 +14045,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14664,7 +14082,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14697,7 +14119,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14730,7 +14156,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14763,13 +14193,17 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest REP.xlsx
+++ b/BackTest/2020-01-15 BackTest REP.xlsx
@@ -550,7 +550,7 @@
         <v>114.442</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>63.57510000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>127.6856</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>77.68560000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>12.22380000000003</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>52.4849675229358</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>50.9026675229358</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>49.3203675229358</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>28.0880675229358</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-269.2091324770642</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>163.2969675229358</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>113.2969675229358</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-16850.57313247706</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-16849.21173247706</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-16849.26093247706</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-16998.65313247706</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-16903.81273247706</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-16908.25633247706</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-16999.22843247706</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-16846.65073247705</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-16846.59863247705</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-16873.97763247705</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-16936.55103247705</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4114,11 +4114,17 @@
         <v>-15716.20533465097</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>10990</v>
+      </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4147,11 +4153,17 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>10990</v>
+      </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4180,11 +4192,17 @@
         <v>-15896.41233465097</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>10970</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4231,17 @@
         <v>-15889.78263465097</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>10970</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4270,17 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>11020</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4309,17 @@
         <v>-16010.20283465097</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>10990</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4312,11 +4348,17 @@
         <v>-15943.53723465097</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>10990</v>
+      </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4387,17 @@
         <v>-15957.17653465097</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>11000</v>
+      </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4378,11 +4426,17 @@
         <v>-15948.50863465097</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>10970</v>
+      </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4411,11 +4465,17 @@
         <v>-15576.60333465097</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>11000</v>
+      </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,11 +4504,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>11040</v>
+      </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4543,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>11050</v>
+      </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4582,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>11050</v>
+      </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4621,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>11050</v>
+      </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4660,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>11050</v>
+      </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +4699,17 @@
         <v>-15432.96423465097</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>11050</v>
+      </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +4738,17 @@
         <v>-15476.90133465097</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>11050</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4777,17 @@
         <v>-15476.85133465097</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>10980</v>
+      </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +4816,17 @@
         <v>-15478.35473465097</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>11040</v>
+      </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +4855,17 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>11030</v>
+      </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4894,17 @@
         <v>-15525.91233465097</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>10960</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4933,17 @@
         <v>-15500.30013465097</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>10960</v>
+      </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4972,17 @@
         <v>-15505.32893465097</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>11010</v>
+      </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5011,17 @@
         <v>-15305.27553465097</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>10960</v>
+      </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5050,17 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>11010</v>
+      </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5089,17 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>10910</v>
+      </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5128,17 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>10910</v>
+      </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5167,17 @@
         <v>-15891.77023465096</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>10910</v>
+      </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5206,17 @@
         <v>-15742.36923465097</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>10910</v>
+      </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5245,17 @@
         <v>-15717.36923465097</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>10920</v>
+      </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5284,17 @@
         <v>-15496.93343465097</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>10980</v>
+      </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5327,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5364,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5401,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5438,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5475,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5512,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5549,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5372,7 +5586,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5405,7 +5623,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5438,7 +5660,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5471,7 +5697,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5504,7 +5734,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5537,7 +5771,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5566,14 +5804,16 @@
         <v>-14025.24773465097</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
@@ -5599,7 +5839,7 @@
         <v>-14025.29933465097</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5872,7 @@
         <v>-13952.07051802875</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5905,7 @@
         <v>-13955.97351802875</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5938,7 @@
         <v>-13955.97351802875</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5971,7 @@
         <v>-13956.07211802875</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +6004,7 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +6037,7 @@
         <v>-13900.38588790397</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +6070,7 @@
         <v>-14008.93598790397</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +6103,7 @@
         <v>-14005.61778790397</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +6136,7 @@
         <v>-14032.01778790397</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +6169,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +6202,7 @@
         <v>-14022.01778790397</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +6235,7 @@
         <v>-14038.09758790397</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6268,7 @@
         <v>-14180.55518790397</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6301,7 @@
         <v>-14099.66908790397</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6334,7 @@
         <v>-14036.06888790397</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6367,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6400,7 @@
         <v>-14068.96928790397</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6433,7 @@
         <v>-14164.31718790397</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6466,7 @@
         <v>-14161.20308790397</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6499,7 @@
         <v>-14228.73998790397</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6532,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6565,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6598,7 @@
         <v>-14123.31258790397</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6631,7 @@
         <v>-14191.71208790397</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6664,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6697,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6730,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6763,7 @@
         <v>-14210.34558790397</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6796,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6829,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6862,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6895,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6928,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6961,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6994,7 @@
         <v>-14209.34558790397</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +7027,7 @@
         <v>-14236.32188790397</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8206,7 +8446,7 @@
         <v>-14593.86718790397</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8479,7 @@
         <v>-14594.86718790397</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8512,7 @@
         <v>-14589.86718790397</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8545,7 @@
         <v>-14606.86718790397</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8578,7 @@
         <v>-14601.86718790397</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8611,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8644,7 @@
         <v>-14661.86718790397</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8677,7 @@
         <v>-14517.40748790397</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8710,7 @@
         <v>-14597.45748790397</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8743,7 @@
         <v>-14601.86238790397</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8776,7 @@
         <v>-14601.86238790397</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8809,7 @@
         <v>-14601.81238790397</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8842,7 @@
         <v>-16525.17258790397</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8875,7 @@
         <v>-16650.97658790397</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9328,11 +9568,17 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>10950</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9365,7 +9611,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9644,17 @@
         <v>-17029.64162500805</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>10920</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9683,17 @@
         <v>-17198.05212500805</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>10920</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9722,17 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>10860</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9761,17 @@
         <v>-17181.95212500805</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>10930</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9800,17 @@
         <v>-17203.79452500806</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>10930</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9839,17 @@
         <v>-17301.03232500805</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>10920</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9878,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>10870</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9917,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>10860</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9956,17 @@
         <v>-17454.60572500806</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>10860</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +9995,17 @@
         <v>-17495.21052500806</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>10860</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10034,17 @@
         <v>-17442.13402500806</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>10850</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10073,17 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>10860</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10112,17 @@
         <v>-17294.32502500806</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>10870</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10151,17 @@
         <v>-16763.16142500806</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>10870</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10190,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>10910</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10229,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>10890</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10268,17 @@
         <v>-16906.92742500806</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>10890</v>
+      </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9960,10 +10312,12 @@
       <c r="I290" t="n">
         <v>10890</v>
       </c>
-      <c r="J290" t="n">
-        <v>10890</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9997,12 +10351,10 @@
       <c r="I291" t="n">
         <v>10890</v>
       </c>
-      <c r="J291" t="n">
-        <v>10890</v>
-      </c>
+      <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L291" t="n">
@@ -10038,12 +10390,10 @@
       <c r="I292" t="n">
         <v>10920</v>
       </c>
-      <c r="J292" t="n">
-        <v>10890</v>
-      </c>
+      <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L292" t="n">
@@ -10078,7 +10428,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10107,15 +10461,13 @@
         <v>-16896.45202054946</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>10990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L294" t="n">
@@ -10224,9 +10576,11 @@
         <v>-16875.15742054945</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>10950</v>
+      </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10489,18 +10843,16 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
@@ -10526,15 +10878,11 @@
         <v>-15940.59592054945</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10563,15 +10911,11 @@
         <v>-16101.72592054945</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10604,11 +10948,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10641,11 +10981,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10674,15 +11010,15 @@
         <v>-16457.16092054945</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>11070</v>
+      </c>
+      <c r="J309" t="n">
+        <v>11070</v>
+      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10711,13 +11047,17 @@
         <v>-16464.28062054945</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>11070</v>
+      </c>
+      <c r="J310" t="n">
+        <v>11070</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L310" t="n">
@@ -10748,13 +11088,17 @@
         <v>-16460.64402054945</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>11050</v>
+      </c>
+      <c r="J311" t="n">
+        <v>11070</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
@@ -10789,11 +11133,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10826,11 +11166,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10859,15 +11195,11 @@
         <v>-16237.70582054945</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10896,15 +11228,11 @@
         <v>-16225.08702054945</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10933,15 +11261,11 @@
         <v>-16271.48702054945</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10970,15 +11294,11 @@
         <v>-16165.75072054945</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11007,15 +11327,11 @@
         <v>-16165.75072054945</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11044,15 +11360,11 @@
         <v>-16099.98892054945</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11081,15 +11393,11 @@
         <v>-16610.02632054945</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11118,15 +11426,11 @@
         <v>-16611.14532054945</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11155,15 +11459,11 @@
         <v>-16615.33782054945</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11192,15 +11492,11 @@
         <v>-16598.28992054945</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11229,15 +11525,11 @@
         <v>-16589.38186658685</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11266,15 +11558,11 @@
         <v>-16696.33776658685</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11303,15 +11591,11 @@
         <v>-17197.49416658685</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11340,15 +11624,11 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11377,15 +11657,11 @@
         <v>-17174.02146658685</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11414,15 +11690,11 @@
         <v>-17171.79116658685</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11451,15 +11723,11 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11488,15 +11756,11 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11525,15 +11789,11 @@
         <v>-17167.50416658685</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11562,15 +11822,11 @@
         <v>-17105.74306658685</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11599,15 +11855,11 @@
         <v>-17108.88106658685</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11636,15 +11888,11 @@
         <v>-17137.51006658685</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11673,15 +11921,11 @@
         <v>-17210.73886658685</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11714,11 +11958,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11751,11 +11991,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11788,11 +12024,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11825,11 +12057,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11862,11 +12090,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11895,15 +12119,11 @@
         <v>-17237.98716658685</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11932,15 +12152,11 @@
         <v>-17413.06116658685</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11969,15 +12185,11 @@
         <v>-17377.75706658685</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12006,15 +12218,11 @@
         <v>-17761.40006658685</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12047,11 +12255,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12084,11 +12288,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12121,11 +12321,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12158,11 +12354,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12195,11 +12387,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12420,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12269,11 +12453,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12306,11 +12486,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12343,11 +12519,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12380,11 +12552,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12417,11 +12585,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12454,11 +12618,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +12651,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12528,11 +12684,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12565,11 +12717,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12602,11 +12750,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12639,11 +12783,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12676,11 +12816,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12713,11 +12849,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12750,11 +12882,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12787,11 +12915,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12824,11 +12948,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12861,11 +12981,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +13014,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12935,11 +13047,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12972,11 +13080,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13009,11 +13113,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13046,11 +13146,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13083,11 +13179,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13120,11 +13212,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13157,11 +13245,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13194,11 +13278,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13231,11 +13311,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13268,11 +13344,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13305,11 +13377,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13342,11 +13410,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13375,15 +13439,11 @@
         <v>-16820.63696658685</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13416,11 +13476,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13509,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13490,11 +13542,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13527,11 +13575,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13564,11 +13608,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13601,11 +13641,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13638,11 +13674,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13675,11 +13707,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13712,11 +13740,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13749,11 +13773,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13786,11 +13806,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13823,11 +13839,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13860,11 +13872,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13897,11 +13905,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13934,11 +13938,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13971,11 +13971,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14004,15 +14000,15 @@
         <v>-17098.81236658684</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>11110</v>
+      </c>
+      <c r="J399" t="n">
+        <v>11110</v>
+      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14044,10 +14040,12 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>11110</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L400" t="n">
@@ -14081,10 +14079,12 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>11110</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L401" t="n">
@@ -14119,11 +14119,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14152,15 +14148,11 @@
         <v>-17045.88586658684</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14189,15 +14181,11 @@
         <v>-17049.60846658684</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
